--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2025_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472DD4C-7D4C-4A5E-88E2-EEB94E8F5F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BA76E-063E-433A-9582-2F422F23EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>lot_id</t>
   </si>
@@ -50,6 +50,16 @@
   </si>
   <si>
     <t>“1300”:{1:{“59CR138-12”:11_10}}}}, “1100”:{1:{“59CR138-12”:11_10}}}}, “1300”:{2:{“59CR138-12”:11_10}}}}, “1300”:{3:{“59CR138-12”:11_10}}}}, “1300”:{4:{“59CR138-12”:11_10}}}}, “1400”:{1:{“59CR138-12”:14_13}}}, “1400”:{2:{“59CR138-12”:14_13}}}</t>
+  </si>
+  <si>
+    <t>59CR002UF1</t>
+  </si>
+  <si>
+    <t>ERASE_CH0_CE0</t>
+  </si>
+  <si>
+    <t>“1300”:{1:{“59CR138-12”:11_10}}}}, “1100”:{1:{“59CR138-22”:21_10}}}}, “1300”:{2:{“59CR138-12”:11_10}}}}, “1300”:{3:{“59CR138-12”:11_10}}}}, “1300”:{4:{“59CR138-12”:11_10}}}}, “1400”:{1:{“59CR138-12”:14_13}}}, “1400”:{2:{“59CR138-12”:14_13}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,6 +499,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
